--- a/NEW HR/ANGELES, ANNABEL DIMARANAN.xlsx
+++ b/NEW HR/ANGELES, ANNABEL DIMARANAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>2/8-10,13/2023</t>
+  </si>
+  <si>
+    <t>3/3,21/2023</t>
   </si>
 </sst>
 </file>
@@ -664,17 +667,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -684,6 +684,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,7 +1217,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1260,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1321,7 +1324,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1384,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1450,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1510,7 +1513,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1611,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1670,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1735,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1778,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1853,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2039,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2105,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2163,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2229,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2285,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,7 +2360,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2403,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +2469,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2525,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,9 +3001,9 @@
   <dimension ref="A2:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A59" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3030,14 +3033,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3048,16 +3051,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3070,16 +3073,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3105,18 +3108,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3163,7 +3166,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3173,7 +3176,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4553,15 +4556,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -5290,17 +5297,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5338,7 +5345,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="H46" sqref="H46:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5368,14 +5375,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5386,16 +5393,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5408,16 +5415,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5443,18 +5450,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5511,7 +5518,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10.150000000000006</v>
+        <v>8.1500000000000057</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6315,8 +6322,12 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="20"/>
+      <c r="A46" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
@@ -6325,10 +6336,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H46" s="39"/>
+      <c r="H46" s="39">
+        <v>2</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>

--- a/NEW HR/ANGELES, ANNABEL DIMARANAN.xlsx
+++ b/NEW HR/ANGELES, ANNABEL DIMARANAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>3/3,21/2023</t>
+  </si>
+  <si>
+    <t>05/31/2023, 06/6/2023</t>
   </si>
 </sst>
 </file>
@@ -667,14 +670,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -684,9 +690,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,7 +1220,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,7 +1263,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +1327,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1384,7 +1387,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1453,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1516,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1611,7 +1614,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1670,7 +1673,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1735,7 +1738,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,7 +1781,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1856,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,7 +2042,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,7 +2108,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2166,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2229,7 +2232,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2288,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2363,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2406,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2472,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2528,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3003,7 +3006,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3033,14 +3036,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3051,16 +3054,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3073,16 +3076,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3108,18 +3111,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5297,17 +5300,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5345,7 +5348,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46:K46"/>
+      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5375,14 +5378,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5393,16 +5396,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5415,16 +5418,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5450,18 +5453,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5518,7 +5521,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>8.1500000000000057</v>
+        <v>6.1500000000000057</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6346,7 +6349,9 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="40">
+        <v>45017</v>
+      </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
@@ -6362,7 +6367,9 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="40">
+        <v>45047</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -6378,8 +6385,12 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
@@ -6388,10 +6399,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="39"/>
+      <c r="H49" s="39">
+        <v>2</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>

--- a/NEW HR/ANGELES, ANNABEL DIMARANAN.xlsx
+++ b/NEW HR/ANGELES, ANNABEL DIMARANAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87329C-741D-4958-A4F5-1A6903738696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,12 +287,15 @@
   </si>
   <si>
     <t>05/31/2023, 06/6/2023</t>
+  </si>
+  <si>
+    <t>6/22,26,27/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -670,17 +674,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -690,6 +691,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,7 +1224,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1267,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1331,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1391,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1457,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1520,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1618,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1677,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1742,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1785,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1860,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2046,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2112,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2170,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2236,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2292,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2367,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2410,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2476,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2532,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2611,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2624,25 +2628,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2654,25 +2658,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K92" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K92" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2979,7 +2983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2989,7 +2993,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2997,34 +3001,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3036,16 +3040,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3054,18 +3058,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3076,18 +3080,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3095,7 +3099,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3108,24 +3112,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3169,7 +3173,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3179,12 +3183,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3206,7 +3210,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3226,7 +3230,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3246,7 +3250,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3266,7 +3270,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3286,7 +3290,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3306,7 +3310,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3326,7 +3330,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3346,7 +3350,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3370,7 +3374,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3390,7 +3394,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3410,7 +3414,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3430,7 +3434,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3450,7 +3454,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>55</v>
       </c>
@@ -3468,7 +3472,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3488,7 +3492,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3508,7 +3512,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3528,7 +3532,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3548,7 +3552,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3568,7 +3572,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3588,7 +3592,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3608,7 +3612,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3628,7 +3632,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3648,7 +3652,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3668,7 +3672,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3688,7 +3692,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3712,7 +3716,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>65</v>
       </c>
@@ -3730,7 +3734,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3750,7 +3754,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3770,7 +3774,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3790,7 +3794,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3810,7 +3814,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3830,7 +3834,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3850,7 +3854,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3870,7 +3874,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3890,7 +3894,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3910,7 +3914,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3930,7 +3934,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="49"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3950,7 +3954,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3974,7 +3978,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>71</v>
       </c>
@@ -3992,7 +3996,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4012,7 +4016,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4032,7 +4036,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4052,7 +4056,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4072,7 +4076,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4092,7 +4096,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4112,7 +4116,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4132,7 +4136,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4152,7 +4156,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4172,7 +4176,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4192,7 +4196,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4212,7 +4216,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4236,7 +4240,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>73</v>
       </c>
@@ -4254,7 +4258,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4274,7 +4278,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4294,7 +4298,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4314,7 +4318,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4334,7 +4338,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4354,7 +4358,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4374,7 +4378,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4394,7 +4398,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4414,7 +4418,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4434,7 +4438,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4454,7 +4458,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4480,7 +4484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4500,7 +4504,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>79</v>
       </c>
@@ -4518,9 +4522,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4538,9 +4542,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4558,9 +4562,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4578,40 +4582,50 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45046</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45077</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4626,8 +4640,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4642,8 +4658,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4658,8 +4676,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4674,8 +4694,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4690,8 +4712,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4706,8 +4730,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4722,8 +4748,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4738,8 +4766,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4754,7 +4784,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4770,7 +4800,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4786,7 +4816,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4802,7 +4832,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4818,7 +4848,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4834,7 +4864,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4850,7 +4880,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4866,7 +4896,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4882,7 +4912,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4898,7 +4928,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4914,7 +4944,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4930,7 +4960,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4946,7 +4976,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4962,7 +4992,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4978,7 +5008,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4994,7 +5024,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5010,7 +5040,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5026,7 +5056,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5042,7 +5072,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5058,7 +5088,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5074,7 +5104,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5090,7 +5120,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5106,7 +5136,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5122,7 +5152,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5138,7 +5168,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5154,7 +5184,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5170,7 +5200,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5186,7 +5216,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5202,7 +5232,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5218,7 +5248,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5234,7 +5264,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5250,7 +5280,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5266,7 +5296,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5282,7 +5312,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="15"/>
       <c r="C123" s="42"/>
@@ -5300,23 +5330,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5339,34 +5369,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A37" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K50" sqref="K50"/>
+      <pane ySplit="3696" topLeftCell="A40" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5378,16 +5408,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5396,18 +5426,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>43101</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5418,18 +5448,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5437,7 +5467,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5450,24 +5480,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5502,7 +5532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5521,12 +5551,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>6.1500000000000057</v>
+        <v>3.1500000000000057</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5548,7 +5578,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5570,7 +5600,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -5592,7 +5622,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -5614,7 +5644,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43344</v>
       </c>
@@ -5638,7 +5668,7 @@
         <v>43357</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43435</v>
       </c>
@@ -5662,7 +5692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>48</v>
@@ -5684,7 +5714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>48</v>
@@ -5706,7 +5736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>55</v>
       </c>
@@ -5724,7 +5754,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43466</v>
       </c>
@@ -5748,7 +5778,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -5770,7 +5800,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43647</v>
       </c>
@@ -5792,7 +5822,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -5814,7 +5844,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43678</v>
       </c>
@@ -5838,7 +5868,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43739</v>
       </c>
@@ -5862,7 +5892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43770</v>
       </c>
@@ -5886,7 +5916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>50</v>
@@ -5908,7 +5938,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>56</v>
@@ -5930,7 +5960,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>50</v>
@@ -5952,7 +5982,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43800</v>
       </c>
@@ -5976,7 +6006,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>65</v>
       </c>
@@ -5994,7 +6024,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43862</v>
       </c>
@@ -6016,7 +6046,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>46</v>
@@ -6036,7 +6066,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44013</v>
       </c>
@@ -6060,7 +6090,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>56</v>
@@ -6080,7 +6110,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44075</v>
       </c>
@@ -6104,7 +6134,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>63</v>
@@ -6126,7 +6156,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44105</v>
       </c>
@@ -6150,7 +6180,7 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>50</v>
@@ -6172,7 +6202,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -6194,7 +6224,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="48" t="s">
         <v>73</v>
       </c>
@@ -6212,7 +6242,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>44774</v>
       </c>
@@ -6236,7 +6266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44835</v>
       </c>
@@ -6260,7 +6290,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>63</v>
@@ -6282,7 +6312,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>79</v>
       </c>
@@ -6300,7 +6330,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44958</v>
       </c>
@@ -6324,7 +6354,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44986</v>
       </c>
@@ -6348,7 +6378,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>45017</v>
       </c>
@@ -6366,7 +6396,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>45047</v>
       </c>
@@ -6384,7 +6414,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>45078</v>
       </c>
@@ -6408,9 +6438,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="20"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="40">
+        <v>45106</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C50" s="13"/>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
@@ -6419,12 +6453,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="39">
+        <v>3</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K50" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6440,7 +6478,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6456,7 +6494,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6472,7 +6510,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6488,7 +6526,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6504,7 +6542,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6520,7 +6558,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6536,7 +6574,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6552,7 +6590,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6568,7 +6606,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6584,7 +6622,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6600,7 +6638,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6616,7 +6654,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6632,7 +6670,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6648,7 +6686,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6664,7 +6702,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6680,7 +6718,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6696,7 +6734,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6712,7 +6750,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6728,7 +6766,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6744,7 +6782,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6760,7 +6798,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6776,7 +6814,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6792,7 +6830,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6808,7 +6846,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6824,7 +6862,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6840,7 +6878,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6856,7 +6894,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6872,7 +6910,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6888,7 +6926,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6904,7 +6942,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6920,7 +6958,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6936,7 +6974,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6952,7 +6990,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -6968,7 +7006,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -6984,7 +7022,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7000,7 +7038,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7016,7 +7054,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7032,7 +7070,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7048,7 +7086,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7064,7 +7102,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7080,7 +7118,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="15"/>
       <c r="C92" s="42"/>
@@ -7111,10 +7149,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7137,28 +7175,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7171,7 +7209,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7200,7 +7238,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>35.585000000000001</v>
       </c>
@@ -7224,17 +7262,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7255,7 +7293,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7282,7 +7320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7308,7 +7346,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7334,7 +7372,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7360,7 +7398,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7386,7 +7424,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7412,7 +7450,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7438,7 +7476,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7464,7 +7502,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7484,7 +7522,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7504,7 +7542,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7524,7 +7562,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7545,7 +7583,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7566,7 +7604,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7587,7 +7625,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7608,7 +7646,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7629,7 +7667,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7650,7 +7688,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7671,7 +7709,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7692,7 +7730,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7713,7 +7751,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7734,7 +7772,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7755,7 +7793,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7776,7 +7814,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7797,7 +7835,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7818,7 +7856,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7839,7 +7877,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7860,7 +7898,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7881,7 +7919,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7902,7 +7940,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7923,7 +7961,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7944,7 +7982,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7953,7 +7991,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7962,7 +8000,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7971,7 +8009,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7980,7 +8018,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7989,7 +8027,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7998,7 +8036,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8007,7 +8045,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8016,7 +8054,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8025,7 +8063,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8034,7 +8072,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8043,7 +8081,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8052,7 +8090,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8061,7 +8099,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8070,7 +8108,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8079,7 +8117,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8088,7 +8126,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8097,7 +8135,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8106,7 +8144,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8115,7 +8153,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8124,7 +8162,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8133,7 +8171,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8142,7 +8180,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8151,7 +8189,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8160,7 +8198,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8169,7 +8207,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8178,7 +8216,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8187,7 +8225,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8196,7 +8234,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8205,7 +8243,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ANGELES, ANNABEL DIMARANAN.xlsx
+++ b/NEW HR/ANGELES, ANNABEL DIMARANAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87329C-741D-4958-A4F5-1A6903738696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>PERIOD</t>
   </si>
@@ -290,12 +289,21 @@
   </si>
   <si>
     <t>6/22,26,27/2023</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>7/11-14/2023</t>
+  </si>
+  <si>
+    <t>7/7,20,21/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1224,7 +1232,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1275,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1331,7 +1339,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1399,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1465,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,7 +1528,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1618,7 +1626,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1677,7 +1685,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1750,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1793,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1868,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2054,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2120,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2170,7 +2178,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2244,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2292,7 +2300,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2375,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2418,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2476,7 +2484,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +2540,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2619,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2628,25 +2636,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K123" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2658,25 +2666,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K92" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K92" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2983,7 +2991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2993,7 +3001,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3001,34 +3009,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A78" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3049,7 +3057,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3069,7 +3077,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3091,7 +3099,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3099,7 +3107,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3112,7 +3120,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3129,7 +3137,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3164,7 +3172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3173,7 +3181,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>53.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3183,12 +3191,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3210,7 +3218,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3230,7 +3238,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3250,7 +3258,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="49"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3270,7 +3278,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3290,7 +3298,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3310,7 +3318,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3330,7 +3338,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3350,7 +3358,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3374,7 +3382,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3394,7 +3402,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="49"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3414,7 +3422,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3434,7 +3442,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3454,7 +3462,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>55</v>
       </c>
@@ -3472,7 +3480,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3492,7 +3500,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3512,7 +3520,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3532,7 +3540,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3552,7 +3560,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3572,7 +3580,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3592,7 +3600,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3612,7 +3620,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="49"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3632,7 +3640,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3652,7 +3660,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3672,7 +3680,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3692,7 +3700,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3716,7 +3724,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>65</v>
       </c>
@@ -3734,7 +3742,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3754,7 +3762,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3774,7 +3782,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3794,7 +3802,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3814,7 +3822,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3834,7 +3842,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3854,7 +3862,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3874,7 +3882,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3894,7 +3902,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3914,7 +3922,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="49"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3934,7 +3942,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="49"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3954,7 +3962,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -3978,7 +3986,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>71</v>
       </c>
@@ -3996,7 +4004,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4016,7 +4024,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4036,7 +4044,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4056,7 +4064,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4076,7 +4084,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4096,7 +4104,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4116,7 +4124,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4136,7 +4144,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4156,7 +4164,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4176,7 +4184,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4196,7 +4204,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4216,7 +4224,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4240,7 +4248,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>73</v>
       </c>
@@ -4258,7 +4266,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4278,7 +4286,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4298,7 +4306,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4318,7 +4326,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4338,7 +4346,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4358,7 +4366,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4378,7 +4386,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4398,7 +4406,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4418,7 +4426,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4438,7 +4446,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4458,7 +4466,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4504,7 +4512,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>79</v>
       </c>
@@ -4522,7 +4530,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4542,7 +4550,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4562,7 +4570,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4582,7 +4590,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4602,7 +4610,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4622,31 +4630,37 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>4</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13" t="str">
@@ -4656,9 +4670,11 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K82" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
@@ -4676,7 +4692,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -4694,7 +4710,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -4712,7 +4728,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -4730,7 +4746,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
@@ -4748,7 +4764,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45322</v>
       </c>
@@ -4766,7 +4782,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45351</v>
       </c>
@@ -4784,7 +4800,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4800,7 +4816,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4816,7 +4832,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4832,7 +4848,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4848,7 +4864,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4864,7 +4880,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4880,7 +4896,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4896,7 +4912,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4912,7 +4928,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4928,7 +4944,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4944,7 +4960,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4960,7 +4976,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4976,7 +4992,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4992,7 +5008,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5008,7 +5024,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5024,7 +5040,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5040,7 +5056,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5056,7 +5072,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5072,7 +5088,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5088,7 +5104,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5104,7 +5120,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5120,7 +5136,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5136,7 +5152,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5152,7 +5168,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5168,7 +5184,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5184,7 +5200,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5200,7 +5216,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5216,7 +5232,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5232,7 +5248,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5248,7 +5264,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5264,7 +5280,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5280,7 +5296,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5296,7 +5312,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5312,7 +5328,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
       <c r="B123" s="15"/>
       <c r="C123" s="42"/>
@@ -5343,10 +5359,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5369,34 +5385,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A40" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5417,7 +5433,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5437,7 +5453,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5459,7 +5475,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5467,7 +5483,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5480,7 +5496,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -5497,7 +5513,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5532,7 +5548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5551,12 +5567,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.1500000000000057</v>
+        <v>0.15000000000000568</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5578,7 +5594,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5600,7 +5616,7 @@
         <v>43126</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -5622,7 +5638,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -5644,7 +5660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43344</v>
       </c>
@@ -5668,7 +5684,7 @@
         <v>43357</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43435</v>
       </c>
@@ -5692,7 +5708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>48</v>
@@ -5714,7 +5730,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>48</v>
@@ -5736,7 +5752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>55</v>
       </c>
@@ -5754,7 +5770,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43466</v>
       </c>
@@ -5778,7 +5794,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>48</v>
@@ -5800,7 +5816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43647</v>
       </c>
@@ -5822,7 +5838,7 @@
         <v>43675</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -5844,7 +5860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43678</v>
       </c>
@@ -5868,7 +5884,7 @@
         <v>43700</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43739</v>
       </c>
@@ -5892,7 +5908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43770</v>
       </c>
@@ -5916,7 +5932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>50</v>
@@ -5938,7 +5954,7 @@
         <v>43791</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>56</v>
@@ -5960,7 +5976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>50</v>
@@ -5982,7 +5998,7 @@
         <v>43782</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43800</v>
       </c>
@@ -6006,7 +6022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
         <v>65</v>
       </c>
@@ -6024,7 +6040,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43862</v>
       </c>
@@ -6046,7 +6062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>46</v>
@@ -6066,7 +6082,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44013</v>
       </c>
@@ -6090,7 +6106,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>56</v>
@@ -6110,7 +6126,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44075</v>
       </c>
@@ -6134,7 +6150,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>63</v>
@@ -6156,7 +6172,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44105</v>
       </c>
@@ -6180,7 +6196,7 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>50</v>
@@ -6202,7 +6218,7 @@
         <v>44106</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>63</v>
@@ -6224,7 +6240,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>73</v>
       </c>
@@ -6242,7 +6258,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44774</v>
       </c>
@@ -6266,7 +6282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44835</v>
       </c>
@@ -6290,7 +6306,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>63</v>
@@ -6312,7 +6328,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
         <v>79</v>
       </c>
@@ -6330,7 +6346,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44958</v>
       </c>
@@ -6354,7 +6370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44986</v>
       </c>
@@ -6378,7 +6394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>45017</v>
       </c>
@@ -6396,7 +6412,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45047</v>
       </c>
@@ -6414,7 +6430,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45078</v>
       </c>
@@ -6438,7 +6454,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45106</v>
       </c>
@@ -6462,9 +6478,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="20"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="40">
+        <v>45132</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C51" s="13"/>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
@@ -6473,12 +6493,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H51" s="39"/>
+      <c r="H51" s="39">
+        <v>3</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6494,7 +6518,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6510,7 +6534,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6526,7 +6550,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6542,7 +6566,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6558,7 +6582,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6574,7 +6598,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6590,7 +6614,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6606,7 +6630,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6622,7 +6646,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6638,7 +6662,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6654,7 +6678,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6670,7 +6694,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6686,7 +6710,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6702,7 +6726,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6718,7 +6742,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6734,7 +6758,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6750,7 +6774,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6766,7 +6790,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -6782,7 +6806,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -6798,7 +6822,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -6814,7 +6838,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -6830,7 +6854,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -6846,7 +6870,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -6862,7 +6886,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -6878,7 +6902,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -6894,7 +6918,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -6910,7 +6934,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -6926,7 +6950,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -6942,7 +6966,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -6958,7 +6982,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -6974,7 +6998,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -6990,7 +7014,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7006,7 +7030,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7022,7 +7046,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7038,7 +7062,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7054,7 +7078,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7070,7 +7094,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7086,7 +7110,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7102,7 +7126,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7118,7 +7142,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="15"/>
       <c r="C92" s="42"/>
@@ -7149,10 +7173,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7175,28 +7199,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -7209,7 +7233,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -7238,7 +7262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>35.585000000000001</v>
       </c>
@@ -7262,17 +7286,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7293,7 +7317,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7320,7 +7344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7346,7 +7370,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7372,7 +7396,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7398,7 +7422,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7424,7 +7448,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7450,7 +7474,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7476,7 +7500,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7502,7 +7526,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7522,7 +7546,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7542,7 +7566,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7562,7 +7586,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7583,7 +7607,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7604,7 +7628,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7625,7 +7649,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7646,7 +7670,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7667,7 +7691,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7688,7 +7712,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7709,7 +7733,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7730,7 +7754,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7751,7 +7775,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7772,7 +7796,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7793,7 +7817,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7814,7 +7838,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7835,7 +7859,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7856,7 +7880,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7877,7 +7901,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7898,7 +7922,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7919,7 +7943,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7940,7 +7964,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7961,7 +7985,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7982,7 +8006,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7991,7 +8015,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8000,7 +8024,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8009,7 +8033,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8018,7 +8042,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8027,7 +8051,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8036,7 +8060,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8045,7 +8069,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8054,7 +8078,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8063,7 +8087,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8072,7 +8096,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8081,7 +8105,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8090,7 +8114,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8099,7 +8123,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8108,7 +8132,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8117,7 +8141,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8126,7 +8150,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8135,7 +8159,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8144,7 +8168,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8153,7 +8177,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8162,7 +8186,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -8171,7 +8195,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -8180,7 +8204,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -8189,7 +8213,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -8198,7 +8222,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -8207,7 +8231,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -8216,7 +8240,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -8225,7 +8249,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -8234,7 +8258,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -8243,7 +8267,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ANGELES, ANNABEL DIMARANAN.xlsx
+++ b/NEW HR/ANGELES, ANNABEL DIMARANAN.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -298,6 +298,24 @@
   </si>
   <si>
     <t>7/7,20,21/2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>8/3,9/2023</t>
+  </si>
+  <si>
+    <t>8/16-18, 23-25/2023</t>
+  </si>
+  <si>
+    <t>8/30, 9/4/2023</t>
+  </si>
+  <si>
+    <t>9/5,7,8,12,14,15/2023</t>
+  </si>
+  <si>
+    <t>9/13,18/2023</t>
   </si>
 </sst>
 </file>
@@ -682,14 +700,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -699,9 +720,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,7 +1250,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1275,7 +1293,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1357,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1417,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1483,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1528,7 +1546,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1644,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1685,7 +1703,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1750,7 +1768,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1811,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1868,7 +1886,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2072,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2138,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2196,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2262,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2318,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2375,7 +2393,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +2436,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2484,7 +2502,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2558,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,9 +3034,9 @@
   <dimension ref="A2:K123"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A78" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,14 +3066,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3066,16 +3084,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3088,16 +3106,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3123,18 +3141,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3181,7 +3199,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.5</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3191,7 +3209,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4654,38 +4672,36 @@
       <c r="A82" s="40">
         <v>45138</v>
       </c>
-      <c r="B82" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="13"/>
-      <c r="D82" s="39">
-        <v>4</v>
-      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20" t="s">
-        <v>85</v>
-      </c>
+      <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4697,13 +4713,15 @@
         <v>45199</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -5346,17 +5364,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5394,7 +5412,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <selection pane="bottomLeft" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5424,14 +5442,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5442,16 +5460,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5464,16 +5482,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5499,18 +5517,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5557,7 +5575,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>26.585000000000001</v>
+        <v>4.5850000000000009</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6504,9 +6522,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
-      <c r="B52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="39"/>
+      <c r="D52" s="39">
+        <v>4</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13" t="str">
@@ -6516,13 +6538,19 @@
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
-      <c r="B53" s="20"/>
+      <c r="B53" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="39"/>
+      <c r="D53" s="39">
+        <v>2</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -6532,13 +6560,19 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
+      <c r="K53" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
-      <c r="B54" s="20"/>
+      <c r="B54" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39">
+        <v>6</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
@@ -6548,13 +6582,21 @@
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
+      <c r="K54" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="20"/>
+      <c r="A55" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="39"/>
+      <c r="D55" s="39">
+        <v>2</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13" t="str">
@@ -6564,13 +6606,19 @@
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
+      <c r="K55" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
-      <c r="B56" s="20"/>
+      <c r="B56" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>6</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="str">
@@ -6580,13 +6628,19 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="39">
+        <v>2</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -6596,7 +6650,9 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="20" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
